--- a/3_Documentos/Dicionario.xlsx
+++ b/3_Documentos/Dicionario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pessoal\Treinamentos\FullStack\sparklabs_diabete\3_Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9911DE40-B7FF-4481-A9B1-E4724335F19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD17907-9FD4-41F1-AA66-9E9DE62248C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E5BC8F57-CD65-48B7-B6B0-A88D2C9B8EB9}"/>
   </bookViews>
@@ -178,9 +178,6 @@
     <t>class_renda</t>
   </si>
   <si>
-    <t>nominal</t>
-  </si>
-  <si>
     <t>0 = Não Diabetes 
 1 =  Pré-Diabetes
 2 = Diabetes</t>
@@ -305,6 +302,9 @@
   <si>
     <t>0 = Não tem dificuldades de subir escada 
 1 = Tem dificuldades em subir escadas</t>
+  </si>
+  <si>
+    <t>Nominal</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -415,6 +415,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,7 +737,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -767,10 +770,10 @@
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -778,13 +781,13 @@
         <v>25</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -792,13 +795,13 @@
         <v>26</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -808,11 +811,11 @@
       <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>47</v>
+      <c r="D5" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -820,13 +823,13 @@
         <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -834,13 +837,13 @@
         <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -851,10 +854,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -865,10 +868,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -879,10 +882,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -893,10 +896,10 @@
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -907,10 +910,10 @@
         <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -921,10 +924,10 @@
         <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -935,10 +938,10 @@
         <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -949,10 +952,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="87" x14ac:dyDescent="0.35">
@@ -966,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
@@ -980,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
@@ -994,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -1005,10 +1008,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -1019,10 +1022,10 @@
         <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="212.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1036,7 +1039,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="101.5" x14ac:dyDescent="0.35">
@@ -1050,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="137.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1064,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
